--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43722,6 +43722,41 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>3400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43757,6 +43757,43 @@
         <v>3400</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43794,6 +43794,43 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43831,6 +43831,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43868,6 +43868,41 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43903,6 +43903,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43940,6 +43940,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43977,6 +43977,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44014,6 +44014,41 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44049,6 +44049,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>21500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44084,6 +44084,76 @@
         <v>21500</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44154,6 +44154,78 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44226,6 +44226,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44263,6 +44263,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44298,6 +44298,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44335,6 +44335,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44370,6 +44370,80 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44444,6 +44444,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>31500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44479,6 +44479,41 @@
         <v>31500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1820"/>
+  <dimension ref="A1:I1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65584,6 +65584,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1821" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1821" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1821"/>
+  <dimension ref="A1:I1822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65621,6 +65621,43 @@
         </is>
       </c>
     </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1822" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1822" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1822"/>
+  <dimension ref="A1:I1823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65658,6 +65658,43 @@
         </is>
       </c>
     </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1823" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1823" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1823"/>
+  <dimension ref="A1:I1824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65695,6 +65695,43 @@
         </is>
       </c>
     </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1824" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1824" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1824"/>
+  <dimension ref="A1:I1825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65732,6 +65732,43 @@
         </is>
       </c>
     </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1825" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1825" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1825"/>
+  <dimension ref="A1:I1826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65769,6 +65769,43 @@
         </is>
       </c>
     </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1826" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1826" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1826"/>
+  <dimension ref="A1:I1827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65806,6 +65806,43 @@
         </is>
       </c>
     </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1827" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1827" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1827"/>
+  <dimension ref="A1:I1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65843,6 +65843,43 @@
         </is>
       </c>
     </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1828" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1828" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1828"/>
+  <dimension ref="A1:I1829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65880,6 +65880,43 @@
         </is>
       </c>
     </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1829" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1829" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1829"/>
+  <dimension ref="A1:I1830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65917,6 +65917,43 @@
         </is>
       </c>
     </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1830" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1830" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1830"/>
+  <dimension ref="A1:I1831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65954,6 +65954,43 @@
         </is>
       </c>
     </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1831" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1831" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1831"/>
+  <dimension ref="A1:I1832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65991,6 +65991,43 @@
         </is>
       </c>
     </row>
+    <row r="1832">
+      <c r="A1832" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1832" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1832" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1832"/>
+  <dimension ref="A1:I1833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66028,6 +66028,43 @@
         </is>
       </c>
     </row>
+    <row r="1833">
+      <c r="A1833" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1833" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1833" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5035.xlsx
+++ b/data/5035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1833"/>
+  <dimension ref="A1:I1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66065,6 +66065,43 @@
         </is>
       </c>
     </row>
+    <row r="1834">
+      <c r="A1834" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>KNUSFOR</t>
+        </is>
+      </c>
+      <c r="E1834" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1834" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
